--- a/Results/Classification/Control vs Atypical/Control 2 (0, 9, 3, 7, 4)/Atypical 2 (4, 1, 13, 10)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 2 (0, 9, 3, 7, 4)/Atypical 2 (4, 1, 13, 10)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -450,13 +450,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.2170335732869684</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.2170335732869684</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.001910844557714726</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.001910844557714726</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00278300978396286</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00278300978396286</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.7601998640822202</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7601998640822202</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -506,13 +506,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.1136118718498357</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.1136118718498357</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01080743223428726</v>
+        <v>0.02987387769194438</v>
       </c>
       <c r="E7">
-        <v>0.9891925454139709</v>
+        <v>0.9701261223080556</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.005604820149101408</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9943951798508985</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -548,13 +548,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.03963953114706664</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9603604688529334</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1469175125200937</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.8530824874799063</v>
       </c>
       <c r="F10">
-        <v>68.93467712402344</v>
+        <v>1.737625122070312</v>
       </c>
       <c r="G10">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -585,13 +585,13 @@
         <v>200</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.2489935434253699</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.2489935434253699</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0006165579020269735</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0006165579020269735</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.003493858659941289</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.003493858659941289</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.712600439272515</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.712600439272515</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -641,13 +641,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.05203423385868784</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.05203423385868784</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.01590273578726582</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.9840972642127341</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.007243261590205338</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9927567384097946</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01908640855893808</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.9809135914410619</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.05192312716446317</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.9480768728355369</v>
       </c>
       <c r="F19">
-        <v>105.5567169189453</v>
+        <v>1.952943801879883</v>
       </c>
       <c r="G19">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
   </sheetData>
